--- a/lengcheMain/docs/TablesOfDatabase.xlsx
+++ b/lengcheMain/docs/TablesOfDatabase.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="222">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,14 +123,725 @@
   </si>
   <si>
     <t>通讯卡信息，包括terminal_id，所属集团，地址address，注册用户、时间等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_INFO_ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>AXIOM_INFO_ATTRIBUTE_TYPE</t>
+  </si>
+  <si>
+    <t>事物属性id，属性类型id等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属性类型id，属性类型名称等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事物ID，事物属性，事物属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_INFO_ATTRIBUTE_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_INFO_TYPE</t>
+  </si>
+  <si>
+    <t>设备类型信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息类型编号，信息类型名称，所属集团，类型所属类别等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_INFO_TYPE_ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>事物类型id，事物属性id，修改模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_MESSAGE</t>
+  </si>
+  <si>
+    <t>消息显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息编号，消息类型，发送、接收消息人，消息内容等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_MESSAGE_TYPE</t>
+  </si>
+  <si>
+    <t>消息类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型编号，消息类型名称，集团名称，是否要求确认，是否私有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_MODULE</t>
+  </si>
+  <si>
+    <t>模块信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块编号，模块路径，模块名称等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_MODULE_PATH</t>
+  </si>
+  <si>
+    <t>模块路径信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径名称，路径显示名称等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_OVERLAY_ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>AXIOM_OVERLAY_ATTRIBUTE_TYPE</t>
+  </si>
+  <si>
+    <t>AXIOM_OVERLAY_ATTRIBUTE_VALUE</t>
+  </si>
+  <si>
+    <t>AXIOM_OVERLAY_PART</t>
+  </si>
+  <si>
+    <t>附属设备信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附属设备ID，名称，类型，所属事物ID，注册时间等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_OVERLAY_POINT</t>
+  </si>
+  <si>
+    <t>设备所在坐标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息事物属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息属性类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息类型属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖物事物属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖物属性类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖物属性类型id，属性类型名称等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖物事物属性id，属性类型id等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖物的事物ID，事物属性，事物属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖物属性值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经度，纬度，所属集团，注册时间等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_OVERLAY_REGION</t>
+  </si>
+  <si>
+    <t>覆盖区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事物名称，事物类型id，点集合，所属集团id等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_OVERLAY_RELATION</t>
+  </si>
+  <si>
+    <t>覆盖物与所属事物关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事物ID，所属事物ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_OVERLAY_ROUTE</t>
+  </si>
+  <si>
+    <t>AXIOM_OVERLAY_TYPE</t>
+  </si>
+  <si>
+    <t>覆盖物类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_OVERLAY_TYPE_ATTRIBUTE</t>
+  </si>
+  <si>
+    <t>覆盖物类型事物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事物类型id，事物类型名称等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事物类型id，事物属性id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_POI</t>
+  </si>
+  <si>
+    <t>POI信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POI编号，显示名称，经纬度，创建时间等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_ROLE</t>
+  </si>
+  <si>
+    <t>角色编号，角色名称，角色所属集团编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_ROLE_MODULE</t>
+  </si>
+  <si>
+    <t>角色模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色编号，模块编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_SMS_QUERY_TARGET</t>
+  </si>
+  <si>
+    <t>手机号码，可查询的终端id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TARGET</t>
+  </si>
+  <si>
+    <t>终端编号，所属集团，注册用户等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TARGET_ALARM</t>
+  </si>
+  <si>
+    <t>目标设备报警信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TARGET_ANALYZE_POINT</t>
+  </si>
+  <si>
+    <t>目标信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询目标信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纬度，速度，方向，接收数据时间等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纬度，速度，方向，GPS UTC时间，接收数据时间等</t>
+  </si>
+  <si>
+    <t>目标分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TARGET_ANALYZE_SPEED</t>
+  </si>
+  <si>
+    <t>目标速度分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纬度，速度，方向，GPS UTC时间，接收数据时间等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TARGET_SPEED</t>
+  </si>
+  <si>
+    <t>目标速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TERMINAL</t>
+  </si>
+  <si>
+    <t>终端信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端编号，终端序列号,车辆id等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TERMINAL_CARD_LOCATION</t>
+  </si>
+  <si>
+    <t>终端卡位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TERMINAL_LOCATION</t>
+  </si>
+  <si>
+    <t>终端位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端序列号，类型特征码，经纬度，所属集团编号等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>终端序列号，类型特征码，经纬度，所属集团编号，管道所属单位等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TERMINAL_TYPE</t>
+  </si>
+  <si>
+    <t>终端类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型编号，类型名称，类型特征码，是否生效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TRACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标编号，速度，方向，轨道编号等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TRACK_DATA_COLLECTION</t>
+  </si>
+  <si>
+    <t>轨道数据收集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨迹编号，脉冲1累计量，脉冲1累计量等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TRACK_GPSREPORT</t>
+  </si>
+  <si>
+    <t>轨道GPS报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TRACK_GPSTRACKER</t>
+  </si>
+  <si>
+    <t>轨道跟踪器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨迹编号，目标编号，状态字等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨迹编号，目标编号，轨道状态字等</t>
+  </si>
+  <si>
+    <t>AXIOM_TRACK_GT06</t>
+  </si>
+  <si>
+    <t>轨迹编号，目标编号，轨道状态字等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TRACK_HOMER2S</t>
+  </si>
+  <si>
+    <t>轨道编号，目标编号，发送机工作状态等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TRACK_LAST</t>
+  </si>
+  <si>
+    <t>目标编号，速度，方向，轨迹编号等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后的轨道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TRACK_MAXTRACK</t>
+  </si>
+  <si>
+    <t>目标编号，速度，方向，设备状态字，设备电压等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大轨道信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TRACK_OILHB_G05A</t>
+  </si>
+  <si>
+    <t>目标编号，速度，方向，轨迹编号等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TRACK_PATROL</t>
+  </si>
+  <si>
+    <t>目标编号，速度，方向，轨迹编号，电池电量等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>轨道巡查</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TRACK_QINGJUN</t>
+  </si>
+  <si>
+    <t>AXIOM_TRACK_RFID_CARD</t>
+  </si>
+  <si>
+    <t>目标编号，速度，方向，读卡器id，发送频率等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射频识别卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TRACK_RFID_READER</t>
+  </si>
+  <si>
+    <t>经纬度，速度，方向，GPS UTC时间，接收数据时间等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射频识别阅读器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_TRACK_TIANHE</t>
+  </si>
+  <si>
+    <t>目标编号，速度，方向，轨迹编号等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标编号，速度，方向，轨迹编号，模拟量0等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_USER</t>
+  </si>
+  <si>
+    <t>用户编号，登录名，登录密码等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_USER_GROUP</t>
+  </si>
+  <si>
+    <t>用户对象组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号，对象组编号，是否关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_USER_INFO</t>
+  </si>
+  <si>
+    <t>ID，生日，籍贯，民族，聘入时间等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集团用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_USER_MODULE</t>
+  </si>
+  <si>
+    <t>用户模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号，模块编号，模块变更方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号，角色编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AXIOM_USER_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DIGITAL_CHECK_FAULT_TYPE</t>
+  </si>
+  <si>
+    <t>HOUSE_BUILDING</t>
+  </si>
+  <si>
+    <t>住宅信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>楼号id，小区id,楼名字等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOUSE_HOUSE</t>
+  </si>
+  <si>
+    <t>房间具体信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门牌id,单元号，门牌名字，注册时间等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HOUSE_INSPECTION</t>
+  </si>
+  <si>
+    <t>房屋检验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门牌ID，使用气量，剩余气量，是否泄漏等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPE_PATROL_EVENT</t>
+  </si>
+  <si>
+    <t>事件编号，事件类型编号，经纬度等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPE_PATROL_EVENT_TYPE</t>
+  </si>
+  <si>
+    <t>事件编号，事件名称，所属集团等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPE_PATROL_SOS</t>
+  </si>
+  <si>
+    <t>目标id,经纬度，报警id等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPE_PATROL_TASK</t>
+  </si>
+  <si>
+    <t>任务id,任务名称，任务开始时间等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPE_PATROL_TASK_REPORT</t>
+  </si>
+  <si>
+    <t>报告ID，目标编号，任务巡检点个数等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPE_PATROL_TASK_REPORT_FINISH</t>
+  </si>
+  <si>
+    <t>报告id,分析点id</t>
+  </si>
+  <si>
+    <t>PIPE_PATROL_TASK_REPORT_SKIP</t>
+  </si>
+  <si>
+    <t>管道巡逻事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道巡逻事件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道巡逻求救</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道巡逻任务报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道巡逻任务完成报告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告id,分析点id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPE_PATROL_TASK_RULE_POINT</t>
+  </si>
+  <si>
+    <t>任务编号，点分析规则编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPE_PATROL_TASK_TARGET</t>
+  </si>
+  <si>
+    <t>管道巡逻任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道巡逻任务及目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务编号，目标编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPE_PROJECT</t>
+  </si>
+  <si>
+    <t>管道工程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,工程名称，操作人ID，操作时间，集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPE_PROJECT_PROGRESS</t>
+  </si>
+  <si>
+    <t>管道工程进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号，工程编号，接收时间，状态等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PIPE_USER_TERMINAL</t>
+  </si>
+  <si>
+    <t>管道用户终端</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编号，终端编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B,C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAREHOUSE_PHOTO</t>
+  </si>
+  <si>
+    <t>仓库照片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id,目标id,捕获时间，服务器接收时间，带有表示图像类型的后缀的字符串、路径和文件名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,6 +856,21 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,8 +895,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -179,11 +911,16 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -257,6 +994,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -291,6 +1029,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -466,21 +1205,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.375" customWidth="1"/>
+    <col min="2" max="2" width="19.25" customWidth="1"/>
     <col min="3" max="3" width="72.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +1230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -502,7 +1241,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -513,7 +1252,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -524,7 +1263,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -535,7 +1274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -546,7 +1285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -554,7 +1293,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -562,7 +1301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -570,7 +1309,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -579,6 +1318,732 @@
       </c>
       <c r="C10" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>93</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>104</v>
+      </c>
+      <c r="C37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>111</v>
+      </c>
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" t="s">
+        <v>118</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>123</v>
+      </c>
+      <c r="B44" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B50" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>147</v>
+      </c>
+      <c r="C53" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B58" t="s">
+        <v>160</v>
+      </c>
+      <c r="C58" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>171</v>
+      </c>
+      <c r="B61" t="s">
+        <v>169</v>
+      </c>
+      <c r="C61" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>173</v>
+      </c>
+      <c r="B63" t="s">
+        <v>174</v>
+      </c>
+      <c r="C63" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" t="s">
+        <v>177</v>
+      </c>
+      <c r="C64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>179</v>
+      </c>
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>182</v>
+      </c>
+      <c r="B66" t="s">
+        <v>195</v>
+      </c>
+      <c r="C66" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+      <c r="C67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>186</v>
+      </c>
+      <c r="B68" t="s">
+        <v>197</v>
+      </c>
+      <c r="C68" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>188</v>
+      </c>
+      <c r="B69" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" t="s">
+        <v>198</v>
+      </c>
+      <c r="C70" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>192</v>
+      </c>
+      <c r="B71" t="s">
+        <v>199</v>
+      </c>
+      <c r="C71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>201</v>
+      </c>
+      <c r="C73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>203</v>
+      </c>
+      <c r="B74" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>210</v>
+      </c>
+      <c r="B76" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>213</v>
+      </c>
+      <c r="B77" t="s">
+        <v>214</v>
+      </c>
+      <c r="C77" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>216</v>
+      </c>
+      <c r="B78" t="s">
+        <v>217</v>
+      </c>
+      <c r="C78" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>219</v>
+      </c>
+      <c r="B79" t="s">
+        <v>220</v>
+      </c>
+      <c r="C79" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>
@@ -589,12 +2054,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -603,12 +2068,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
